--- a/my_briefs_top_1000.xlsx
+++ b/my_briefs_top_1000.xlsx
@@ -588,11 +588,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -610,16 +611,25 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -675,32 +685,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -787,94 +797,94 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="87.65"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -894,46 +904,46 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="0" t="s">
@@ -941,65 +951,65 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
@@ -1013,34 +1023,34 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="0" t="s">
@@ -1060,34 +1070,34 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K7" s="0" t="s">
@@ -1107,59 +1117,59 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="K9" s="0" t="s">
@@ -1171,7 +1181,7 @@
       <c r="M9" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -1179,34 +1189,34 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="0" t="s">
@@ -1226,34 +1236,34 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K11" s="0" t="s">
@@ -1273,34 +1283,34 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>114</v>
       </c>
       <c r="K12" s="0" t="s">
@@ -1315,39 +1325,39 @@
       <c r="N12" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K13" s="0" t="s">
@@ -1367,59 +1377,59 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K15" s="0" t="s">
@@ -1439,34 +1449,34 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>151</v>
       </c>
       <c r="K16" s="0" t="s">
@@ -1486,34 +1496,34 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>156</v>
       </c>
       <c r="K17" s="0" t="s">
@@ -1533,34 +1543,34 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>162</v>
       </c>
       <c r="K18" s="0" t="s">
@@ -1580,34 +1590,34 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>172</v>
       </c>
       <c r="K19" s="0" t="s">
@@ -1627,7 +1637,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -1636,25 +1646,25 @@
       <c r="C20" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K20" s="0" t="s">
